--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Serie</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2729,6 +2732,23 @@
         <v>3.53</v>
       </c>
     </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>1.35</v>
+      </c>
+      <c r="C118">
+        <v>1.85</v>
+      </c>
+      <c r="D118">
+        <v>1.55</v>
+      </c>
+      <c r="E118">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
+++ b/3/5/2/3/Operaciones en US$ 1992 a 2021 - Trimestral.xlsx
@@ -2737,16 +2737,16 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="C118">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="D118">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="E118">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
     </row>
   </sheetData>
